--- a/resultados_1.xlsx
+++ b/resultados_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="26820" windowHeight="19720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="0 Carriles" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="output_1" localSheetId="2">'2 carriles'!$A$1:$F$64</definedName>
     <definedName name="output_2" localSheetId="2">'2 carriles'!$A$1:$F$8</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="output_0.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_0.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_0.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -43,7 +43,7 @@
     </textPr>
   </connection>
   <connection id="2" name="output_1.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_1.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_1.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -55,7 +55,7 @@
     </textPr>
   </connection>
   <connection id="3" name="output_2.csv" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_2.csv" comma="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:eordano:Code:ss:output_2.csv" comma="1">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -139,17 +139,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -491,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3058,7 +3062,7 @@
         <v>122.99321486268175</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>1456</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>124.57202072538858</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>1556</v>
       </c>
@@ -3122,7 +3126,7 @@
         <v>125.33951999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>1174</v>
       </c>
@@ -3154,7 +3158,7 @@
         <v>113.14743326488707</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>1387</v>
       </c>
@@ -3186,7 +3190,7 @@
         <v>118.33846153846156</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>1329</v>
       </c>
@@ -3218,7 +3222,7 @@
         <v>126.10887573964496</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>1128</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>110.5203166226913</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>1251</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>123.89813664596274</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>1321</v>
       </c>
@@ -3314,7 +3318,7 @@
         <v>113.63487544483986</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>1457</v>
       </c>
@@ -3346,7 +3350,7 @@
         <v>113.95813953488373</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>1683</v>
       </c>
@@ -3378,7 +3382,7 @@
         <v>123.86666666666669</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>1570</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>126.24712430426715</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:11">
       <c r="C95">
         <f>AVERAGE(C2:C91)</f>
         <v>4.6712055555555532</v>
@@ -3440,8 +3444,31 @@
         <v>121.12218794950724</v>
       </c>
     </row>
+    <row r="96" spans="1:11">
+      <c r="C96">
+        <f>STDEV(C2:C91)</f>
+        <v>0.1403276890206194</v>
+      </c>
+      <c r="D96">
+        <f>STDEV(D2:D91)</f>
+        <v>0.11478411277510508</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ref="E96:I96" si="7">STDEV(H2:H91)</f>
+        <v>2.4244712652930529</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="7"/>
+        <v>6.1793549561032481</v>
+      </c>
+      <c r="K96">
+        <f>16*C96^2/(C95*5/100)^2</f>
+        <v>5.7757549992771926</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -3452,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView showRuler="0" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="K96" sqref="K96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3511,15 +3538,15 @@
         <v>584</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G65" si="0">A2-B2</f>
+        <f t="shared" ref="G2:G64" si="0">A2-B2</f>
         <v>1237.1199999999999</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H65" si="1">E2/G2*60</f>
+        <f t="shared" ref="H2:H64" si="1">E2/G2*60</f>
         <v>48.257242628039322</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="2">G2/F2*60</f>
+        <f t="shared" ref="I2:I64" si="2">G2/F2*60</f>
         <v>127.10136986301367</v>
       </c>
     </row>
@@ -5507,7 +5534,7 @@
         <v>125.75711422845691</v>
       </c>
     </row>
-    <row r="95" spans="3:9">
+    <row r="95" spans="3:11">
       <c r="C95">
         <f>AVERAGE(C2:C64)</f>
         <v>3.9317730158730151</v>
@@ -5535,6 +5562,28 @@
       <c r="I95">
         <f t="shared" si="3"/>
         <v>122.09425713469597</v>
+      </c>
+    </row>
+    <row r="96" spans="3:11">
+      <c r="C96">
+        <f>STDEV(C2:C91)</f>
+        <v>0.31913791042904299</v>
+      </c>
+      <c r="D96">
+        <f>STDEV(D2:D91)</f>
+        <v>7.5345062467955068E-2</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ref="H96:K96" si="4">STDEV(H2:H91)</f>
+        <v>2.051454875010891</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="4"/>
+        <v>4.9921637806956873</v>
+      </c>
+      <c r="K96">
+        <f>16*C96^2/(C95*5/100)^2</f>
+        <v>42.16575614434602</v>
       </c>
     </row>
   </sheetData>
@@ -5549,10 +5598,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5565,7 +5614,7 @@
     <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5588,7 +5637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>7007</v>
       </c>
@@ -5608,19 +5657,19 @@
         <v>3193</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G65" si="0">A2-B2</f>
+        <f t="shared" ref="G2:G8" si="0">A2-B2</f>
         <v>6679.38</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H64" si="1">E2/G2*60</f>
+        <f t="shared" ref="H2:H8" si="1">E2/G2*60</f>
         <v>37.683138255347053</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I65" si="2">G2/F2*60</f>
+        <f t="shared" ref="I2:I8" si="2">G2/F2*60</f>
         <v>125.5129345443157</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>6942</v>
       </c>
@@ -5652,7 +5701,7 @@
         <v>126.20063572790846</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>7487</v>
       </c>
@@ -5684,7 +5733,7 @@
         <v>126.74010695187165</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>7429</v>
       </c>
@@ -5716,7 +5765,7 @@
         <v>124.71263157894737</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>6652</v>
       </c>
@@ -5748,7 +5797,7 @@
         <v>128.96096885813148</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>7288</v>
       </c>
@@ -5780,7 +5829,7 @@
         <v>123.94521531100479</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>9157</v>
       </c>
@@ -5812,7 +5861,7 @@
         <v>128.74645441389291</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="C11">
         <f>AVERAGE(C2:C8)</f>
         <v>0.40744285714285711</v>
@@ -5840,6 +5889,28 @@
       <c r="I11">
         <f t="shared" si="3"/>
         <v>126.40270676943892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="C12">
+        <f>STDEV(C2:C8)</f>
+        <v>6.3474242995167837E-2</v>
+      </c>
+      <c r="D12">
+        <f>STDEV(D2:D8)</f>
+        <v>1.754892480765597E-2</v>
+      </c>
+      <c r="H12">
+        <f>STDEV(H2:H8)</f>
+        <v>0.85111408644519093</v>
+      </c>
+      <c r="I12">
+        <f>STDEV(I2:I8)</f>
+        <v>1.9096178742813348</v>
+      </c>
+      <c r="K12">
+        <f>16*C12^2/(C11*5/100)^2</f>
+        <v>155.32509108559537</v>
       </c>
     </row>
   </sheetData>
